--- a/elo/knapsack/fantasydf_distance.xlsx
+++ b/elo/knapsack/fantasydf_distance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -31,124 +31,145 @@
     <t>elo</t>
   </si>
   <si>
+    <t>points</t>
+  </si>
+  <si>
     <t>place</t>
   </si>
   <si>
-    <t>pursuit</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
     <t>Alexander BOLSHUNOV</t>
   </si>
   <si>
+    <t>Andrey MELNICHENKO</t>
+  </si>
+  <si>
+    <t>Evgeniy BELOV</t>
+  </si>
+  <si>
+    <t>Ivan YAKIMUSHKIN</t>
+  </si>
+  <si>
+    <t>Dario COLOGNA</t>
+  </si>
+  <si>
     <t>Denis SPITSOV</t>
   </si>
   <si>
-    <t>Ivan YAKIMUSHKIN</t>
-  </si>
-  <si>
     <t>Artem MALTSEV</t>
   </si>
   <si>
-    <t>Evgeniy BELOV</t>
-  </si>
-  <si>
-    <t>Andrey MELNICHENKO</t>
+    <t>Francesco DE FABIANI</t>
+  </si>
+  <si>
+    <t>Jean Marc GAILLARD</t>
+  </si>
+  <si>
+    <t>Maurice MANIFICAT</t>
+  </si>
+  <si>
+    <t>Calle HALFVARSSON</t>
+  </si>
+  <si>
+    <t>Clement PARISSE</t>
   </si>
   <si>
     <t>Alexey CHERVOTKIN</t>
   </si>
   <si>
-    <t>Maurice MANIFICAT</t>
+    <t>Lucas BOEGL</t>
+  </si>
+  <si>
+    <t>Florian NOTZ</t>
   </si>
   <si>
     <t>Hugo LAPALUS</t>
   </si>
   <si>
-    <t>Florian NOTZ</t>
-  </si>
-  <si>
-    <t>Lucas BOEGL</t>
-  </si>
-  <si>
-    <t>Dario COLOGNA</t>
-  </si>
-  <si>
-    <t>Clement PARISSE</t>
+    <t>Adrien BACKSCHEIDER</t>
+  </si>
+  <si>
+    <t>Ilia SEMIKOV</t>
+  </si>
+  <si>
+    <t>Ireneu ESTEVE ALTIMIRAS</t>
   </si>
   <si>
     <t>Jonas DOBLER</t>
   </si>
   <si>
-    <t>Andrew MUSGRAVE</t>
-  </si>
-  <si>
-    <t>Janosch BRUGGER</t>
-  </si>
-  <si>
-    <t>Calle HALFVARSSON</t>
-  </si>
-  <si>
-    <t>Francesco DE FABIANI</t>
+    <t>Jules LAPIERRE</t>
+  </si>
+  <si>
+    <t>Federico PELLEGRINO</t>
+  </si>
+  <si>
+    <t>Giandomenico SALVADORI</t>
+  </si>
+  <si>
+    <t>Jonas BAUMANN</t>
+  </si>
+  <si>
+    <t>Beda KLEE</t>
+  </si>
+  <si>
+    <t>William POROMAA</t>
+  </si>
+  <si>
+    <t>Roman FURGER</t>
+  </si>
+  <si>
+    <t>Michal NOVAK</t>
   </si>
   <si>
     <t>Gus SCHUMACHER</t>
   </si>
   <si>
-    <t>Jean Marc GAILLARD</t>
-  </si>
-  <si>
-    <t>Giandomenico SALVADORI</t>
-  </si>
-  <si>
-    <t>Alexander TERENTEV</t>
-  </si>
-  <si>
-    <t>Ilia SEMIKOV</t>
-  </si>
-  <si>
-    <t>Oskar SVENSSON</t>
-  </si>
-  <si>
-    <t>Federico PELLEGRINO</t>
-  </si>
-  <si>
-    <t>Jules LAPIERRE</t>
-  </si>
-  <si>
-    <t>Adrien BACKSCHEIDER</t>
-  </si>
-  <si>
-    <t>Markus VUORELA</t>
-  </si>
-  <si>
-    <t>William POROMAA</t>
-  </si>
-  <si>
-    <t>Ireneu ESTEVE ALTIMIRAS</t>
+    <t>Thomas BING</t>
+  </si>
+  <si>
+    <t>Ebba ANDERSSON</t>
+  </si>
+  <si>
+    <t>Krista PARMAKOSKI</t>
   </si>
   <si>
     <t>Jessie DIGGINS</t>
   </si>
   <si>
-    <t>Ebba ANDERSSON</t>
+    <t>Natalia NEPRYAEVA</t>
+  </si>
+  <si>
+    <t>Teresa STADLOBER</t>
   </si>
   <si>
     <t>Rosie BRENNAN</t>
   </si>
   <si>
-    <t>Krista PARMAKOSKI</t>
+    <t>Frida KARLSSON</t>
   </si>
   <si>
     <t>Yulia STUPAK</t>
   </si>
   <si>
-    <t>Teresa STADLOBER</t>
-  </si>
-  <si>
-    <t>Frida KARLSSON</t>
+    <t>Katharina HENNIG</t>
+  </si>
+  <si>
+    <t>Anamarija LAMPIC</t>
+  </si>
+  <si>
+    <t>Katerina RAZYMOVA</t>
+  </si>
+  <si>
+    <t>Jonna SUNDLING</t>
+  </si>
+  <si>
+    <t>Alisa ZHAMBALOVA</t>
+  </si>
+  <si>
+    <t>Nadine FAEHNDRICH</t>
+  </si>
+  <si>
+    <t>Emma RIBOM</t>
   </si>
   <si>
     <t>Tatiana SORINA</t>
@@ -157,67 +178,43 @@
     <t>Delphine CLAUDEL</t>
   </si>
   <si>
-    <t>Katerina RAZYMOVA</t>
-  </si>
-  <si>
-    <t>Katharina HENNIG</t>
-  </si>
-  <si>
-    <t>Alisa ZHAMBALOVA</t>
+    <t>Linn SVAHN</t>
+  </si>
+  <si>
+    <t>Maja DAHLQVIST</t>
+  </si>
+  <si>
+    <t>Yana KIRPICHENKO</t>
   </si>
   <si>
     <t>Anna COMARELLA</t>
   </si>
   <si>
-    <t>Natalia NEPRYAEVA</t>
-  </si>
-  <si>
-    <t>Maja DAHLQVIST</t>
-  </si>
-  <si>
-    <t>Anamarija LAMPIC</t>
-  </si>
-  <si>
-    <t>Yana KIRPICHENKO</t>
-  </si>
-  <si>
     <t>Anna NECHAEVSKAYA</t>
   </si>
   <si>
+    <t>Hailey SWIRBUL</t>
+  </si>
+  <si>
+    <t>Moa LUNDGREN</t>
+  </si>
+  <si>
+    <t>Johanna MATINTALO</t>
+  </si>
+  <si>
+    <t>Pia FINK</t>
+  </si>
+  <si>
+    <t>Izabela MARCISZ</t>
+  </si>
+  <si>
+    <t>Patricija EIDUKA</t>
+  </si>
+  <si>
+    <t>Hristina MATSOKINA</t>
+  </si>
+  <si>
     <t>Lucia SCARDONI</t>
-  </si>
-  <si>
-    <t>Nadine FAEHNDRICH</t>
-  </si>
-  <si>
-    <t>Hailey SWIRBUL</t>
-  </si>
-  <si>
-    <t>Katharine OGDEN</t>
-  </si>
-  <si>
-    <t>Emma RIBOM</t>
-  </si>
-  <si>
-    <t>Patricija EIDUKA</t>
-  </si>
-  <si>
-    <t>Izabela MARCISZ</t>
-  </si>
-  <si>
-    <t>Jonna SUNDLING</t>
-  </si>
-  <si>
-    <t>Johanna MATINTALO</t>
-  </si>
-  <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
-    <t>Julia KERN</t>
-  </si>
-  <si>
-    <t>Moa OLSSON</t>
   </si>
   <si>
     <t>m</t>
@@ -581,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,16 +606,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>3482277</v>
@@ -627,1042 +621,934 @@
         <v>22366</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>1726.853686398477</v>
+        <v>1732.18189517436</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3482280</v>
+        <v>3481803</v>
       </c>
       <c r="D3">
-        <v>2646</v>
+        <v>7488</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>1568.18987188218</v>
+        <v>1601.870697828126</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3482105</v>
+        <v>3481161</v>
       </c>
       <c r="D4">
-        <v>5172</v>
+        <v>3443</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4">
-        <v>1585.577310781777</v>
+        <v>1600.326079779114</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3481432</v>
+        <v>3482105</v>
       </c>
       <c r="D5">
-        <v>4522</v>
+        <v>5172</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>1527.895043664217</v>
+        <v>1596.118910206721</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3481161</v>
+        <v>3510023</v>
       </c>
       <c r="D6">
-        <v>3443</v>
+        <v>4296</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>1590.922899608191</v>
+        <v>1582.105311573254</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3481803</v>
+        <v>3482280</v>
       </c>
       <c r="D7">
-        <v>7488</v>
+        <v>2646</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>1594.349996143839</v>
+        <v>1575.451156306246</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>3482119</v>
+        <v>3481432</v>
       </c>
       <c r="D8">
-        <v>4000</v>
+        <v>4522</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8">
-        <v>1497.297826146955</v>
+        <v>1536.731247923186</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="I8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>3190111</v>
+        <v>3290379</v>
       </c>
       <c r="D9">
-        <v>1450</v>
+        <v>3407</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9">
-        <v>1507.091972912483</v>
+        <v>1524.907386956058</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>3190529</v>
+        <v>1345875</v>
       </c>
       <c r="D10">
-        <v>471</v>
+        <v>900</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10">
-        <v>1456.77011602787</v>
+        <v>1520.169606712691</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>3200376</v>
+        <v>3190111</v>
       </c>
       <c r="D11">
-        <v>753</v>
+        <v>1450</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11">
-        <v>1469.257731255051</v>
+        <v>1518.969876204332</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>3200205</v>
+        <v>3500664</v>
       </c>
       <c r="D12">
-        <v>1319</v>
+        <v>2131</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>1492.425111120934</v>
+        <v>1517.865842338174</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
-      <c r="I12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>3510023</v>
+        <v>3190302</v>
       </c>
       <c r="D13">
-        <v>4296</v>
+        <v>1470</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13">
-        <v>1584.240887399734</v>
+        <v>1514.313895054173</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
-      <c r="I13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>3482119</v>
+      </c>
+      <c r="D14">
+        <v>4000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>1511.526537927875</v>
+      </c>
+      <c r="G14">
         <v>20</v>
-      </c>
-      <c r="C14">
-        <v>3190302</v>
-      </c>
-      <c r="D14">
-        <v>1470</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14">
-        <v>1507.567274252813</v>
-      </c>
-      <c r="G14">
-        <v>16</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
-      <c r="I14">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
       <c r="C15">
-        <v>3200356</v>
+        <v>3200205</v>
       </c>
       <c r="D15">
-        <v>579</v>
+        <v>1319</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>1442.500408564079</v>
+        <v>1501.881882470634</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>3200376</v>
+      </c>
+      <c r="D16">
+        <v>753</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>1477.759985189281</v>
+      </c>
+      <c r="G16">
         <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>3220002</v>
-      </c>
-      <c r="D16">
-        <v>5122</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16">
-        <v>1489.115863198801</v>
-      </c>
-      <c r="G16">
-        <v>17</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>3200676</v>
+        <v>3190529</v>
       </c>
       <c r="D17">
-        <v>225</v>
+        <v>471</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17">
-        <v>1352.791520969737</v>
+        <v>1467.854353093378</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>3500664</v>
+        <v>3190268</v>
       </c>
       <c r="D18">
-        <v>2131</v>
+        <v>861</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18">
-        <v>1520.456480401404</v>
+        <v>1457.221302586188</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
-      <c r="I18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3290379</v>
+        <v>3481988</v>
       </c>
       <c r="D19">
-        <v>3407</v>
+        <v>1838</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19">
-        <v>1522.530720299295</v>
+        <v>1451.124678365366</v>
       </c>
       <c r="G19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
-      <c r="I19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>3530882</v>
+        <v>3020003</v>
       </c>
       <c r="D20">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20">
-        <v>1360.885620180564</v>
+        <v>1448.783528657129</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>1345875</v>
+        <v>3200356</v>
       </c>
       <c r="D21">
-        <v>900</v>
+        <v>579</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21">
-        <v>1523.825474909278</v>
+        <v>1448.658513494179</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
-      <c r="I21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>3290407</v>
+        <v>3190398</v>
       </c>
       <c r="D22">
-        <v>432</v>
+        <v>585</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>1398.008723526024</v>
+        <v>1448.179216608535</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>3482806</v>
+        <v>3290326</v>
       </c>
       <c r="D23">
-        <v>1099</v>
+        <v>11514</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23">
-        <v>1325.10925254254</v>
+        <v>1408.609658622404</v>
       </c>
       <c r="G23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
-      <c r="I23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>3481988</v>
+        <v>3290407</v>
       </c>
       <c r="D24">
-        <v>1838</v>
+        <v>432</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24">
-        <v>1436.911476312405</v>
+        <v>1402.338081974652</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>3501255</v>
+        <v>3510342</v>
       </c>
       <c r="D25">
-        <v>978</v>
+        <v>627</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25">
-        <v>1348.687339682021</v>
+        <v>1401.033429916665</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
-      <c r="I25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>3290326</v>
+        <v>3510534</v>
       </c>
       <c r="D26">
-        <v>11514</v>
+        <v>309</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26">
-        <v>1400.192757133788</v>
+        <v>1399.23189542357</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
-      <c r="I26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>3190398</v>
+        <v>3501741</v>
       </c>
       <c r="D27">
-        <v>585</v>
+        <v>990</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27">
-        <v>1451.143139705532</v>
+        <v>1393.340963898608</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>3190268</v>
+        <v>3510351</v>
       </c>
       <c r="D28">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28">
-        <v>1461.793548685662</v>
+        <v>1387.739178302313</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>3181007</v>
+        <v>3150570</v>
       </c>
       <c r="D29">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29">
-        <v>1346.092684525138</v>
+        <v>1377.104163101124</v>
       </c>
       <c r="G29">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>3501741</v>
+        <v>3530882</v>
       </c>
       <c r="D30">
-        <v>990</v>
+        <v>592</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30">
-        <v>1385.531703976211</v>
+        <v>1375.634034448002</v>
       </c>
       <c r="G30">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>3020003</v>
+        <v>3200241</v>
       </c>
       <c r="D31">
-        <v>577</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31">
-        <v>1454.540369266438</v>
+        <v>1362.254316453613</v>
       </c>
       <c r="G31">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>3535410</v>
+        <v>3505990</v>
       </c>
       <c r="D32">
-        <v>12712</v>
+        <v>15649</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32">
-        <v>1614.639648886874</v>
+        <v>1654.754047673453</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>3505990</v>
+        <v>3185256</v>
       </c>
       <c r="D33">
-        <v>15649</v>
+        <v>5201</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33">
-        <v>1649.134813265448</v>
+        <v>1632.579747881609</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
-      <c r="I33">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>3535316</v>
+        <v>3535410</v>
       </c>
       <c r="D34">
-        <v>10007</v>
+        <v>12712</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34">
-        <v>1567.769497673414</v>
+        <v>1620.680747446691</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
-      <c r="I34">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>3185256</v>
+        <v>3486010</v>
       </c>
       <c r="D35">
-        <v>5201</v>
+        <v>16746</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35">
-        <v>1628.778305877616</v>
+        <v>1599.765739481308</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>3486239</v>
+        <v>3055067</v>
       </c>
       <c r="D36">
-        <v>7809</v>
+        <v>6614</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36">
-        <v>1529.443832345738</v>
+        <v>1576.330871640065</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>5</v>
       </c>
-      <c r="I36">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>3055067</v>
+        <v>3535316</v>
       </c>
       <c r="D37">
-        <v>6614</v>
+        <v>10007</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37">
-        <v>1576.351011176389</v>
+        <v>1574.930543153247</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>6</v>
       </c>
-      <c r="I37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>3506154</v>
@@ -1671,686 +1557,614 @@
         <v>13508</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38">
-        <v>1556.570535334194</v>
+        <v>1556.592492182449</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>7</v>
       </c>
-      <c r="I38">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>3485933</v>
+        <v>3486239</v>
       </c>
       <c r="D39">
-        <v>7690</v>
+        <v>7809</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39">
-        <v>1426.462721581626</v>
+        <v>1540.964451932462</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>8</v>
       </c>
-      <c r="I39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>3195219</v>
+        <v>3205460</v>
       </c>
       <c r="D40">
-        <v>965</v>
+        <v>4757</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F40">
-        <v>1411.219097530205</v>
+        <v>1538.975135919713</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H40">
         <v>9</v>
       </c>
-      <c r="I40">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>3155314</v>
+        <v>3565062</v>
       </c>
       <c r="D41">
-        <v>1975</v>
+        <v>12607</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41">
-        <v>1466.981411826014</v>
+        <v>1482.997593388708</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
-      <c r="I41">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>3205460</v>
+        <v>3155314</v>
       </c>
       <c r="D42">
-        <v>4757</v>
+        <v>1975</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42">
-        <v>1533.609397563914</v>
+        <v>1474.986585722738</v>
       </c>
       <c r="G42">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H42">
         <v>11</v>
       </c>
-      <c r="I42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>3485862</v>
+        <v>3505809</v>
       </c>
       <c r="D43">
-        <v>1015</v>
+        <v>4518</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43">
-        <v>1440.818682366699</v>
+        <v>1458.444441619587</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>12</v>
       </c>
-      <c r="I43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>3295322</v>
+        <v>3485862</v>
       </c>
       <c r="D44">
-        <v>429</v>
+        <v>1015</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44">
-        <v>1394.062777638188</v>
+        <v>1451.999033846492</v>
       </c>
       <c r="G44">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H44">
         <v>13</v>
       </c>
-      <c r="I44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>3486010</v>
+        <v>3515221</v>
       </c>
       <c r="D45">
-        <v>16746</v>
+        <v>10716</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F45">
-        <v>1599.050082322902</v>
+        <v>1449.695511667406</v>
       </c>
       <c r="G45">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H45">
         <v>14</v>
       </c>
-      <c r="I45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>3505800</v>
+        <v>3506008</v>
       </c>
       <c r="D46">
-        <v>4816</v>
+        <v>2750</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46">
-        <v>1407.202853739185</v>
+        <v>1448.306184411589</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H46">
         <v>15</v>
       </c>
-      <c r="I46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>3565062</v>
+        <v>3485933</v>
       </c>
       <c r="D47">
-        <v>12607</v>
+        <v>7690</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47">
-        <v>1479.954577588321</v>
+        <v>1439.321124043882</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H47">
         <v>16</v>
       </c>
-      <c r="I47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>3486314</v>
+        <v>3195219</v>
       </c>
       <c r="D48">
-        <v>730</v>
+        <v>965</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48">
-        <v>1395.254733031647</v>
+        <v>1414.768044349744</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48">
         <v>17</v>
       </c>
-      <c r="I48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>3485849</v>
+        <v>3506166</v>
       </c>
       <c r="D49">
-        <v>454</v>
+        <v>4946</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49">
-        <v>1387.424607730462</v>
+        <v>1410.642470656044</v>
       </c>
       <c r="G49">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H49">
         <v>18</v>
       </c>
-      <c r="I49">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>3295157</v>
+        <v>3505800</v>
       </c>
       <c r="D50">
-        <v>2630</v>
+        <v>4816</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50">
-        <v>1306.470214041146</v>
+        <v>1410.1380240385</v>
       </c>
       <c r="G50">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50">
         <v>19</v>
       </c>
-      <c r="I50">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>3515221</v>
+        <v>3486314</v>
       </c>
       <c r="D51">
-        <v>10716</v>
+        <v>730</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F51">
-        <v>1446.488863776049</v>
+        <v>1405.695759209766</v>
       </c>
       <c r="G51">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H51">
         <v>20</v>
       </c>
-      <c r="I51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>3535602</v>
+        <v>3295322</v>
       </c>
       <c r="D52">
-        <v>1197</v>
+        <v>429</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52">
-        <v>1377.21112539519</v>
+        <v>1399.474437445176</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H52">
         <v>21</v>
       </c>
-      <c r="I52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>3535601</v>
+        <v>3485849</v>
       </c>
       <c r="D53">
-        <v>217</v>
+        <v>454</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53">
-        <v>1283.924903421864</v>
+        <v>1383.880208128322</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>22</v>
       </c>
-      <c r="I53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>3506008</v>
+        <v>3535602</v>
       </c>
       <c r="D54">
-        <v>2750</v>
+        <v>1197</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54">
-        <v>1453.125752443179</v>
+        <v>1379.374281992235</v>
       </c>
       <c r="G54">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H54">
         <v>23</v>
       </c>
-      <c r="I54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>3555052</v>
+        <v>3506079</v>
       </c>
       <c r="D55">
-        <v>368</v>
+        <v>1793</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55">
-        <v>1315.977551517312</v>
+        <v>1376.365396130615</v>
       </c>
       <c r="G55">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H55">
         <v>24</v>
       </c>
-      <c r="I55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>3435197</v>
+        <v>3185579</v>
       </c>
       <c r="D56">
-        <v>229</v>
+        <v>622</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56">
-        <v>1319.781015486708</v>
+        <v>1362.746632084901</v>
       </c>
       <c r="G56">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>25</v>
       </c>
-      <c r="I56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>3505809</v>
+        <v>3205407</v>
       </c>
       <c r="D57">
-        <v>4518</v>
+        <v>328</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57">
-        <v>1467.466123661712</v>
+        <v>1356.000698123499</v>
       </c>
       <c r="G57">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H57">
         <v>26</v>
       </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>3185579</v>
+        <v>3435197</v>
       </c>
       <c r="D58">
-        <v>622</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58">
-        <v>1353.203491080694</v>
+        <v>1321.099619001685</v>
       </c>
       <c r="G58">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H58">
         <v>27</v>
       </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>3486563</v>
+        <v>3555052</v>
       </c>
       <c r="D59">
-        <v>540</v>
+        <v>368</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59">
-        <v>1311.923063415559</v>
+        <v>1318.368515886185</v>
       </c>
       <c r="G59">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>28</v>
       </c>
-      <c r="I59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>3535562</v>
+        <v>3486563</v>
       </c>
       <c r="D60">
-        <v>2809</v>
+        <v>540</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60">
-        <v>1270.94960531017</v>
+        <v>1316.250316398753</v>
       </c>
       <c r="G60">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>29</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>3505998</v>
+        <v>3295157</v>
       </c>
       <c r="D61">
-        <v>227</v>
+        <v>2630</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61">
-        <v>1305.481016029856</v>
+        <v>1313.663931256407</v>
       </c>
       <c r="G61">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>30</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/elo/knapsack/fantasydf_distance.xlsx
+++ b/elo/knapsack/fantasydf_distance.xlsx
@@ -43,39 +43,36 @@
     <t>Andrey MELNICHENKO</t>
   </si>
   <si>
+    <t>Ivan YAKIMUSHKIN</t>
+  </si>
+  <si>
     <t>Evgeniy BELOV</t>
   </si>
   <si>
-    <t>Ivan YAKIMUSHKIN</t>
-  </si>
-  <si>
     <t>Dario COLOGNA</t>
   </si>
   <si>
     <t>Denis SPITSOV</t>
   </si>
   <si>
+    <t>Francesco DE FABIANI</t>
+  </si>
+  <si>
     <t>Artem MALTSEV</t>
   </si>
   <si>
-    <t>Francesco DE FABIANI</t>
+    <t>Maurice MANIFICAT</t>
+  </si>
+  <si>
+    <t>Alexey CHERVOTKIN</t>
+  </si>
+  <si>
+    <t>Clement PARISSE</t>
   </si>
   <si>
     <t>Jean Marc GAILLARD</t>
   </si>
   <si>
-    <t>Maurice MANIFICAT</t>
-  </si>
-  <si>
-    <t>Calle HALFVARSSON</t>
-  </si>
-  <si>
-    <t>Clement PARISSE</t>
-  </si>
-  <si>
-    <t>Alexey CHERVOTKIN</t>
-  </si>
-  <si>
     <t>Lucas BOEGL</t>
   </si>
   <si>
@@ -85,46 +82,49 @@
     <t>Hugo LAPALUS</t>
   </si>
   <si>
+    <t>Ilia SEMIKOV</t>
+  </si>
+  <si>
     <t>Adrien BACKSCHEIDER</t>
   </si>
   <si>
-    <t>Ilia SEMIKOV</t>
+    <t>Jonas DOBLER</t>
+  </si>
+  <si>
+    <t>Jules LAPIERRE</t>
   </si>
   <si>
     <t>Ireneu ESTEVE ALTIMIRAS</t>
   </si>
   <si>
-    <t>Jonas DOBLER</t>
-  </si>
-  <si>
-    <t>Jules LAPIERRE</t>
+    <t>Beda KLEE</t>
+  </si>
+  <si>
+    <t>Jonas BAUMANN</t>
+  </si>
+  <si>
+    <t>Roman FURGER</t>
   </si>
   <si>
     <t>Federico PELLEGRINO</t>
   </si>
   <si>
+    <t>Gus SCHUMACHER</t>
+  </si>
+  <si>
     <t>Giandomenico SALVADORI</t>
   </si>
   <si>
-    <t>Jonas BAUMANN</t>
-  </si>
-  <si>
-    <t>Beda KLEE</t>
-  </si>
-  <si>
     <t>William POROMAA</t>
   </si>
   <si>
-    <t>Roman FURGER</t>
-  </si>
-  <si>
     <t>Michal NOVAK</t>
   </si>
   <si>
-    <t>Gus SCHUMACHER</t>
-  </si>
-  <si>
-    <t>Thomas BING</t>
+    <t>Janosch BRUGGER</t>
+  </si>
+  <si>
+    <t>Oskar SVENSSON</t>
   </si>
   <si>
     <t>Ebba ANDERSSON</t>
@@ -145,27 +145,24 @@
     <t>Rosie BRENNAN</t>
   </si>
   <si>
-    <t>Frida KARLSSON</t>
+    <t>Katharina HENNIG</t>
   </si>
   <si>
     <t>Yulia STUPAK</t>
   </si>
   <si>
-    <t>Katharina HENNIG</t>
+    <t>Katerina RAZYMOVA</t>
   </si>
   <si>
     <t>Anamarija LAMPIC</t>
   </si>
   <si>
-    <t>Katerina RAZYMOVA</t>
+    <t>Alisa ZHAMBALOVA</t>
   </si>
   <si>
     <t>Jonna SUNDLING</t>
   </si>
   <si>
-    <t>Alisa ZHAMBALOVA</t>
-  </si>
-  <si>
     <t>Nadine FAEHNDRICH</t>
   </si>
   <si>
@@ -175,46 +172,49 @@
     <t>Tatiana SORINA</t>
   </si>
   <si>
+    <t>Linn SVAHN</t>
+  </si>
+  <si>
+    <t>Yana KIRPICHENKO</t>
+  </si>
+  <si>
+    <t>Maja DAHLQVIST</t>
+  </si>
+  <si>
     <t>Delphine CLAUDEL</t>
   </si>
   <si>
-    <t>Linn SVAHN</t>
-  </si>
-  <si>
-    <t>Maja DAHLQVIST</t>
-  </si>
-  <si>
-    <t>Yana KIRPICHENKO</t>
-  </si>
-  <si>
     <t>Anna COMARELLA</t>
   </si>
   <si>
     <t>Anna NECHAEVSKAYA</t>
   </si>
   <si>
+    <t>Johanna MATINTALO</t>
+  </si>
+  <si>
     <t>Hailey SWIRBUL</t>
   </si>
   <si>
     <t>Moa LUNDGREN</t>
   </si>
   <si>
-    <t>Johanna MATINTALO</t>
-  </si>
-  <si>
     <t>Pia FINK</t>
   </si>
   <si>
+    <t>Hristina MATSOKINA</t>
+  </si>
+  <si>
+    <t>Patricija EIDUKA</t>
+  </si>
+  <si>
     <t>Izabela MARCISZ</t>
   </si>
   <si>
-    <t>Patricija EIDUKA</t>
-  </si>
-  <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
     <t>Lucia SCARDONI</t>
+  </si>
+  <si>
+    <t>Katharine OGDEN</t>
   </si>
   <si>
     <t>m</t>
@@ -624,7 +624,7 @@
         <v>67</v>
       </c>
       <c r="F2">
-        <v>1732.18189517436</v>
+        <v>1736.942652250966</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -650,7 +650,7 @@
         <v>67</v>
       </c>
       <c r="F3">
-        <v>1601.870697828126</v>
+        <v>1606.399469762189</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -661,22 +661,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3481161</v>
+        <v>3482105</v>
       </c>
       <c r="D4">
-        <v>3443</v>
+        <v>5172</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
       </c>
       <c r="F4">
-        <v>1600.326079779114</v>
+        <v>1602.617640472539</v>
       </c>
       <c r="G4">
         <v>43</v>
@@ -687,22 +687,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3482105</v>
+        <v>3481161</v>
       </c>
       <c r="D5">
-        <v>5172</v>
+        <v>3443</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
       </c>
       <c r="F5">
-        <v>1596.118910206721</v>
+        <v>1590.476894337263</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -728,7 +728,7 @@
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1582.105311573254</v>
+        <v>1583.330931868493</v>
       </c>
       <c r="G6">
         <v>37</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -754,7 +754,7 @@
         <v>67</v>
       </c>
       <c r="F7">
-        <v>1575.451156306246</v>
+        <v>1570.207566945783</v>
       </c>
       <c r="G7">
         <v>34</v>
@@ -765,22 +765,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>3481432</v>
+        <v>3290379</v>
       </c>
       <c r="D8">
-        <v>4522</v>
+        <v>3407</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8">
-        <v>1536.731247923186</v>
+        <v>1537.662436865539</v>
       </c>
       <c r="G8">
         <v>32</v>
@@ -791,22 +791,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>3290379</v>
+        <v>3481432</v>
       </c>
       <c r="D9">
-        <v>3407</v>
+        <v>4522</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1524.907386956058</v>
+        <v>1527.576927266618</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -817,22 +817,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>1345875</v>
+        <v>3190111</v>
       </c>
       <c r="D10">
-        <v>900</v>
+        <v>1450</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10">
-        <v>1520.169606712691</v>
+        <v>1525.262025588714</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -843,22 +843,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <v>3190111</v>
+        <v>3482119</v>
       </c>
       <c r="D11">
-        <v>1450</v>
+        <v>4000</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>1518.969876204332</v>
+        <v>1524.196699221395</v>
       </c>
       <c r="G11">
         <v>26</v>
@@ -869,22 +869,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>3500664</v>
+        <v>3190302</v>
       </c>
       <c r="D12">
-        <v>2131</v>
+        <v>1470</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1517.865842338174</v>
+        <v>1510.673083144423</v>
       </c>
       <c r="G12">
         <v>24</v>
@@ -895,22 +895,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3190302</v>
+        <v>1345875</v>
       </c>
       <c r="D13">
-        <v>1470</v>
+        <v>900</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>1514.313895054173</v>
+        <v>1492.393327867095</v>
       </c>
       <c r="G13">
         <v>22</v>
@@ -921,22 +921,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14">
-        <v>3482119</v>
+        <v>3200205</v>
       </c>
       <c r="D14">
-        <v>4000</v>
+        <v>1319</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>1511.526537927875</v>
+        <v>1492.165223042629</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -947,22 +947,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3200205</v>
+        <v>3200376</v>
       </c>
       <c r="D15">
-        <v>1319</v>
+        <v>753</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>1501.881882470634</v>
+        <v>1483.940611390974</v>
       </c>
       <c r="G15">
         <v>18</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16">
-        <v>3200376</v>
+        <v>3190529</v>
       </c>
       <c r="D16">
-        <v>753</v>
+        <v>471</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16">
-        <v>1477.759985189281</v>
+        <v>1471.243575633898</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -999,22 +999,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3190529</v>
+        <v>3481988</v>
       </c>
       <c r="D17">
-        <v>471</v>
+        <v>1838</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17">
-        <v>1467.854353093378</v>
+        <v>1466.607684332251</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1040,7 +1040,7 @@
         <v>67</v>
       </c>
       <c r="F18">
-        <v>1457.221302586188</v>
+        <v>1460.421799815955</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -1051,22 +1051,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>3481988</v>
+        <v>3200356</v>
       </c>
       <c r="D19">
-        <v>1838</v>
+        <v>579</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19">
-        <v>1451.124678365366</v>
+        <v>1448.146886827821</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1077,22 +1077,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3020003</v>
+        <v>3190398</v>
       </c>
       <c r="D20">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20">
-        <v>1448.783528657129</v>
+        <v>1443.447826225347</v>
       </c>
       <c r="G20">
         <v>12</v>
@@ -1103,22 +1103,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21">
-        <v>3200356</v>
+        <v>3020003</v>
       </c>
       <c r="D21">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21">
-        <v>1448.658513494179</v>
+        <v>1439.764017607593</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1129,22 +1129,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
-        <v>3190398</v>
+        <v>3510534</v>
       </c>
       <c r="D22">
-        <v>585</v>
+        <v>309</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22">
-        <v>1448.179216608535</v>
+        <v>1409.539208805186</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1155,22 +1155,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23">
-        <v>3290326</v>
+        <v>3510342</v>
       </c>
       <c r="D23">
-        <v>11514</v>
+        <v>627</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
       <c r="F23">
-        <v>1408.609658622404</v>
+        <v>1401.874067893088</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1181,22 +1181,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>3290407</v>
+        <v>3510351</v>
       </c>
       <c r="D24">
-        <v>432</v>
+        <v>1000</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
       </c>
       <c r="F24">
-        <v>1402.338081974652</v>
+        <v>1401.341398506652</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -1207,22 +1207,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>3510342</v>
+        <v>3290326</v>
       </c>
       <c r="D25">
-        <v>627</v>
+        <v>11514</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
       </c>
       <c r="F25">
-        <v>1401.033429916665</v>
+        <v>1399.61014193598</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -1233,22 +1233,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26">
-        <v>3510534</v>
+        <v>3530882</v>
       </c>
       <c r="D26">
-        <v>309</v>
+        <v>592</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
       </c>
       <c r="F26">
-        <v>1399.23189542357</v>
+        <v>1392.570758800316</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1259,22 +1259,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>3501741</v>
+        <v>3290407</v>
       </c>
       <c r="D27">
-        <v>990</v>
+        <v>432</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
       </c>
       <c r="F27">
-        <v>1393.340963898608</v>
+        <v>1391.194250139777</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1285,22 +1285,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3510351</v>
+        <v>3501741</v>
       </c>
       <c r="D28">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28">
-        <v>1387.739178302313</v>
+        <v>1389.580016131817</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -1326,7 +1326,7 @@
         <v>67</v>
       </c>
       <c r="F29">
-        <v>1377.104163101124</v>
+        <v>1382.895674595035</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1337,22 +1337,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30">
-        <v>3530882</v>
+        <v>3200676</v>
       </c>
       <c r="D30">
-        <v>592</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
       </c>
       <c r="F30">
-        <v>1375.634034448002</v>
+        <v>1372.949764962163</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1363,22 +1363,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31">
-        <v>3200241</v>
+        <v>3501255</v>
       </c>
       <c r="D31">
-        <v>215</v>
+        <v>978</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
       </c>
       <c r="F31">
-        <v>1362.254316453613</v>
+        <v>1372.083933822685</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>68</v>
       </c>
       <c r="F32">
-        <v>1654.754047673453</v>
+        <v>1659.13271412388</v>
       </c>
       <c r="G32">
         <v>50</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -1430,7 +1430,7 @@
         <v>68</v>
       </c>
       <c r="F33">
-        <v>1632.579747881609</v>
+        <v>1635.15528494265</v>
       </c>
       <c r="G33">
         <v>46</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -1456,7 +1456,7 @@
         <v>68</v>
       </c>
       <c r="F34">
-        <v>1620.680747446691</v>
+        <v>1621.130397462035</v>
       </c>
       <c r="G34">
         <v>43</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -1482,7 +1482,7 @@
         <v>68</v>
       </c>
       <c r="F35">
-        <v>1599.765739481308</v>
+        <v>1607.800000070196</v>
       </c>
       <c r="G35">
         <v>40</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
@@ -1508,7 +1508,7 @@
         <v>68</v>
       </c>
       <c r="F36">
-        <v>1576.330871640065</v>
+        <v>1582.752344637822</v>
       </c>
       <c r="G36">
         <v>37</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -1534,7 +1534,7 @@
         <v>68</v>
       </c>
       <c r="F37">
-        <v>1574.930543153247</v>
+        <v>1558.459915065148</v>
       </c>
       <c r="G37">
         <v>34</v>
@@ -1545,22 +1545,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>3506154</v>
+        <v>3205460</v>
       </c>
       <c r="D38">
-        <v>13508</v>
+        <v>4757</v>
       </c>
       <c r="E38" t="s">
         <v>68</v>
       </c>
       <c r="F38">
-        <v>1556.592492182449</v>
+        <v>1548.710985362219</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -1586,7 +1586,7 @@
         <v>68</v>
       </c>
       <c r="F39">
-        <v>1540.964451932462</v>
+        <v>1545.510793932414</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -1597,22 +1597,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>3205460</v>
+        <v>3155314</v>
       </c>
       <c r="D40">
-        <v>4757</v>
+        <v>1975</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40">
-        <v>1538.975135919713</v>
+        <v>1476.735259303259</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -1638,7 +1638,7 @@
         <v>68</v>
       </c>
       <c r="F41">
-        <v>1482.997593388708</v>
+        <v>1469.895410046562</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -1649,22 +1649,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42">
-        <v>3155314</v>
+        <v>3485862</v>
       </c>
       <c r="D42">
-        <v>1975</v>
+        <v>1015</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42">
-        <v>1474.986585722738</v>
+        <v>1461.719799557537</v>
       </c>
       <c r="G42">
         <v>24</v>
@@ -1690,7 +1690,7 @@
         <v>68</v>
       </c>
       <c r="F43">
-        <v>1458.444441619587</v>
+        <v>1459.333576270609</v>
       </c>
       <c r="G43">
         <v>22</v>
@@ -1707,16 +1707,16 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>3485862</v>
+        <v>3515221</v>
       </c>
       <c r="D44">
-        <v>1015</v>
+        <v>10716</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="F44">
-        <v>1451.999033846492</v>
+        <v>1455.285308668383</v>
       </c>
       <c r="G44">
         <v>20</v>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>3515221</v>
+        <v>3506008</v>
       </c>
       <c r="D45">
-        <v>10716</v>
+        <v>2750</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
       </c>
       <c r="F45">
-        <v>1449.695511667406</v>
+        <v>1448.867896878917</v>
       </c>
       <c r="G45">
         <v>18</v>
@@ -1753,22 +1753,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>3506008</v>
+        <v>3485933</v>
       </c>
       <c r="D46">
-        <v>2750</v>
+        <v>7690</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
       </c>
       <c r="F46">
-        <v>1448.306184411589</v>
+        <v>1443.75004424736</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -1779,22 +1779,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>3485933</v>
+        <v>3506166</v>
       </c>
       <c r="D47">
-        <v>7690</v>
+        <v>4946</v>
       </c>
       <c r="E47" t="s">
         <v>68</v>
       </c>
       <c r="F47">
-        <v>1439.321124043882</v>
+        <v>1417.432128715318</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -1805,22 +1805,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>3195219</v>
+        <v>3486314</v>
       </c>
       <c r="D48">
-        <v>965</v>
+        <v>730</v>
       </c>
       <c r="E48" t="s">
         <v>68</v>
       </c>
       <c r="F48">
-        <v>1414.768044349744</v>
+        <v>1415.298130472853</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>3506166</v>
+        <v>3505800</v>
       </c>
       <c r="D49">
-        <v>4946</v>
+        <v>4816</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
       </c>
       <c r="F49">
-        <v>1410.642470656044</v>
+        <v>1414.404452149957</v>
       </c>
       <c r="G49">
         <v>13</v>
@@ -1857,22 +1857,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50">
-        <v>3505800</v>
+        <v>3195219</v>
       </c>
       <c r="D50">
-        <v>4816</v>
+        <v>965</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
       </c>
       <c r="F50">
-        <v>1410.1380240385</v>
+        <v>1409.438962178083</v>
       </c>
       <c r="G50">
         <v>12</v>
@@ -1883,22 +1883,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>3486314</v>
+        <v>3295322</v>
       </c>
       <c r="D51">
-        <v>730</v>
+        <v>429</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
       </c>
       <c r="F51">
-        <v>1405.695759209766</v>
+        <v>1400.057752530737</v>
       </c>
       <c r="G51">
         <v>11</v>
@@ -1909,22 +1909,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>3295322</v>
+        <v>3485849</v>
       </c>
       <c r="D52">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
       </c>
       <c r="F52">
-        <v>1399.474437445176</v>
+        <v>1384.444504011689</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -1935,22 +1935,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53">
-        <v>3485849</v>
+        <v>3185579</v>
       </c>
       <c r="D53">
-        <v>454</v>
+        <v>622</v>
       </c>
       <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="F53">
-        <v>1383.880208128322</v>
+        <v>1378.88596547722</v>
       </c>
       <c r="G53">
         <v>9</v>
@@ -1976,7 +1976,7 @@
         <v>68</v>
       </c>
       <c r="F54">
-        <v>1379.374281992235</v>
+        <v>1377.628758165435</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -2002,7 +2002,7 @@
         <v>68</v>
       </c>
       <c r="F55">
-        <v>1376.365396130615</v>
+        <v>1372.230203467825</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -2013,22 +2013,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>3185579</v>
+        <v>3205407</v>
       </c>
       <c r="D56">
-        <v>622</v>
+        <v>328</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
       </c>
       <c r="F56">
-        <v>1362.746632084901</v>
+        <v>1359.747784010592</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2045,16 +2045,16 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>3205407</v>
+        <v>3486563</v>
       </c>
       <c r="D57">
-        <v>328</v>
+        <v>540</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
       </c>
       <c r="F57">
-        <v>1356.000698123499</v>
+        <v>1318.675426323114</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58">
-        <v>3435197</v>
+        <v>3555052</v>
       </c>
       <c r="D58">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="E58" t="s">
         <v>68</v>
       </c>
       <c r="F58">
-        <v>1321.099619001685</v>
+        <v>1315.584650058391</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -2091,22 +2091,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59">
-        <v>3555052</v>
+        <v>3435197</v>
       </c>
       <c r="D59">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
         <v>68</v>
       </c>
       <c r="F59">
-        <v>1318.368515886185</v>
+        <v>1314.774894034429</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -2117,22 +2117,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3486563</v>
+        <v>3295157</v>
       </c>
       <c r="D60">
-        <v>540</v>
+        <v>2630</v>
       </c>
       <c r="E60" t="s">
         <v>68</v>
       </c>
       <c r="F60">
-        <v>1316.250316398753</v>
+        <v>1306.021769961765</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2143,22 +2143,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3295157</v>
+        <v>3535601</v>
       </c>
       <c r="D61">
-        <v>2630</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
       </c>
       <c r="F61">
-        <v>1313.663931256407</v>
+        <v>1301.098819420089</v>
       </c>
       <c r="G61">
         <v>1</v>

--- a/elo/knapsack/fantasydf_distance.xlsx
+++ b/elo/knapsack/fantasydf_distance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -37,76 +37,184 @@
     <t>place</t>
   </si>
   <si>
-    <t>MaleRUSSIA II</t>
-  </si>
-  <si>
-    <t>MaleRUSSIA I</t>
-  </si>
-  <si>
-    <t>MaleNORWAY I</t>
-  </si>
-  <si>
-    <t>MaleNORWAY II</t>
-  </si>
-  <si>
-    <t>MaleGERMANY I</t>
-  </si>
-  <si>
-    <t>MaleSWEDEN I</t>
-  </si>
-  <si>
-    <t>MaleFINLAND I</t>
-  </si>
-  <si>
-    <t>MaleFRANCE I</t>
-  </si>
-  <si>
-    <t>MaleUNITED STATES OF AMERICA I</t>
-  </si>
-  <si>
-    <t>MaleKAZAKHSTAN I</t>
-  </si>
-  <si>
-    <t>MalePEOPLES REPUBLIC OF CHINA I</t>
-  </si>
-  <si>
-    <t>FemaleNORWAY I</t>
-  </si>
-  <si>
-    <t>FemaleUNITED STATES I</t>
-  </si>
-  <si>
-    <t>FemaleSWEDEN I</t>
-  </si>
-  <si>
-    <t>FemaleFINLAND I</t>
-  </si>
-  <si>
-    <t>FemaleNORWAY II</t>
-  </si>
-  <si>
-    <t>FemaleRUSSIA I</t>
-  </si>
-  <si>
-    <t>FemaleRUSSIA II</t>
-  </si>
-  <si>
-    <t>FemaleGERMANY I</t>
-  </si>
-  <si>
-    <t>FemaleFRANCE I</t>
-  </si>
-  <si>
-    <t>FemaleJAPAN I</t>
-  </si>
-  <si>
-    <t>FemaleKAZAKHSTAN I</t>
-  </si>
-  <si>
-    <t>FemalePEOPLES REPUBLIC OF CHINA I</t>
-  </si>
-  <si>
-    <t>FemaleUNITED STATES II</t>
+    <t>Alexander BOLSHUNOV</t>
+  </si>
+  <si>
+    <t>Sjur ROETHE</t>
+  </si>
+  <si>
+    <t>Hans Christer HOLUND</t>
+  </si>
+  <si>
+    <t>Iivo NISKANEN</t>
+  </si>
+  <si>
+    <t>Simen Hegstad KRUEGER</t>
+  </si>
+  <si>
+    <t>Andrey MELNICHENKO</t>
+  </si>
+  <si>
+    <t>Emil IVERSEN</t>
+  </si>
+  <si>
+    <t>Ivan YAKIMUSHKIN</t>
+  </si>
+  <si>
+    <t>Andrey LARKOV</t>
+  </si>
+  <si>
+    <t>Evgeniy BELOV</t>
+  </si>
+  <si>
+    <t>Denis SPITSOV</t>
+  </si>
+  <si>
+    <t>Dario COLOGNA</t>
+  </si>
+  <si>
+    <t>Jens BURMAN</t>
+  </si>
+  <si>
+    <t>Martin Loewstroem NYENGET</t>
+  </si>
+  <si>
+    <t>Paal GOLBERG</t>
+  </si>
+  <si>
+    <t>Artem MALTSEV</t>
+  </si>
+  <si>
+    <t>Alexey CHERVOTKIN</t>
+  </si>
+  <si>
+    <t>Ristomatti HAKOLA</t>
+  </si>
+  <si>
+    <t>Lucas BOEGL</t>
+  </si>
+  <si>
+    <t>Perttu HYVARINEN</t>
+  </si>
+  <si>
+    <t>Andrew MUSGRAVE</t>
+  </si>
+  <si>
+    <t>Florian NOTZ</t>
+  </si>
+  <si>
+    <t>Andrew YOUNG</t>
+  </si>
+  <si>
+    <t>Jonas DOBLER</t>
+  </si>
+  <si>
+    <t>Gus SCHUMACHER</t>
+  </si>
+  <si>
+    <t>Beda KLEE</t>
+  </si>
+  <si>
+    <t>Joni MAEKI</t>
+  </si>
+  <si>
+    <t>Jonas BAUMANN</t>
+  </si>
+  <si>
+    <t>David NORRIS</t>
+  </si>
+  <si>
+    <t>Markus VUORELA</t>
+  </si>
+  <si>
+    <t>Therese JOHAUG</t>
+  </si>
+  <si>
+    <t>Heidi WENG</t>
+  </si>
+  <si>
+    <t>Ebba ANDERSSON</t>
+  </si>
+  <si>
+    <t>Krista PARMAKOSKI</t>
+  </si>
+  <si>
+    <t>Jessie DIGGINS</t>
+  </si>
+  <si>
+    <t>Charlotte KALLA</t>
+  </si>
+  <si>
+    <t>Natalia NEPRYAEVA</t>
+  </si>
+  <si>
+    <t>Teresa STADLOBER</t>
+  </si>
+  <si>
+    <t>Rosie BRENNAN</t>
+  </si>
+  <si>
+    <t>Katharina HENNIG</t>
+  </si>
+  <si>
+    <t>Kerttu NISKANEN</t>
+  </si>
+  <si>
+    <t>Tiril Udnes WENG</t>
+  </si>
+  <si>
+    <t>Anne Kjersti KALVAA</t>
+  </si>
+  <si>
+    <t>Emma RIBOM</t>
+  </si>
+  <si>
+    <t>Laura MONONEN</t>
+  </si>
+  <si>
+    <t>Yana KIRPICHENKO</t>
+  </si>
+  <si>
+    <t>Lotta Udnes WENG</t>
+  </si>
+  <si>
+    <t>Riitta-Liisa ROPONEN</t>
+  </si>
+  <si>
+    <t>Masako ISHIDA</t>
+  </si>
+  <si>
+    <t>Helene Marie FOSSESHOLM</t>
+  </si>
+  <si>
+    <t>Mariya ISTOMINA</t>
+  </si>
+  <si>
+    <t>Anna NECHAEVSKAYA</t>
+  </si>
+  <si>
+    <t>Lilia VASILIEVA</t>
+  </si>
+  <si>
+    <t>Anne KYLLOENEN</t>
+  </si>
+  <si>
+    <t>Johanna MATINTALO</t>
+  </si>
+  <si>
+    <t>Pia FINK</t>
+  </si>
+  <si>
+    <t>Evelina SETTLIN</t>
+  </si>
+  <si>
+    <t>Sofia HENRIKSSON</t>
+  </si>
+  <si>
+    <t>Nataliya MEKRYUKOVA</t>
+  </si>
+  <si>
+    <t>Julia PREUSSGER</t>
   </si>
   <si>
     <t>m</t>
@@ -470,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,19 +615,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>193053</v>
+        <v>3482277</v>
       </c>
       <c r="D2">
-        <v>7722</v>
+        <v>22412</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>6316.52028252335</v>
+        <v>1745.052694604947</v>
       </c>
       <c r="G2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -527,25 +635,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>201359</v>
+        <v>3420605</v>
       </c>
       <c r="D3">
-        <v>30219</v>
+        <v>7911</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>6284.419720957961</v>
+        <v>1663.347770534812</v>
       </c>
       <c r="G3">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -553,25 +661,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>100069</v>
+        <v>3420586</v>
       </c>
       <c r="D4">
-        <v>32665</v>
+        <v>7511</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F4">
-        <v>6399.064650796185</v>
+        <v>1661.88997494179</v>
       </c>
       <c r="G4">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -579,25 +687,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>74612</v>
+        <v>3180535</v>
       </c>
       <c r="D5">
-        <v>15355</v>
+        <v>11382</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>5952.686665857325</v>
+        <v>1635.975369099482</v>
       </c>
       <c r="G5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -605,25 +713,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>100070</v>
+        <v>3421779</v>
       </c>
       <c r="D6">
-        <v>1654</v>
+        <v>6969</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>5668.84269258028</v>
+        <v>1633.827347302268</v>
       </c>
       <c r="G6">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -631,25 +739,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>100075</v>
+        <v>3481803</v>
       </c>
       <c r="D7">
-        <v>15635</v>
+        <v>6504</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>5504.609762195811</v>
+        <v>1616.044978122944</v>
       </c>
       <c r="G7">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -657,25 +765,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>100072</v>
+        <v>3421320</v>
       </c>
       <c r="D8">
-        <v>15635</v>
+        <v>8035</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F8">
-        <v>5841.001779889994</v>
+        <v>1615.493918422346</v>
       </c>
       <c r="G8">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -683,25 +791,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>102344</v>
+        <v>3482105</v>
       </c>
       <c r="D9">
-        <v>26991</v>
+        <v>4730</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F9">
-        <v>5587.370286536636</v>
+        <v>1614.33029556413</v>
       </c>
       <c r="G9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -709,25 +817,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>121833</v>
+        <v>3481132</v>
       </c>
       <c r="D10">
-        <v>5583</v>
+        <v>2296</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F10">
-        <v>5320.981937527842</v>
+        <v>1604.172473648359</v>
       </c>
       <c r="G10">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -735,25 +843,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <v>999999</v>
+        <v>3481161</v>
       </c>
       <c r="D11">
-        <v>23096</v>
+        <v>3244</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F11">
-        <v>5038.291524892157</v>
+        <v>1603.194711152179</v>
       </c>
       <c r="G11">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -761,25 +869,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>132612</v>
+        <v>3482280</v>
       </c>
       <c r="D12">
-        <v>231</v>
+        <v>2834</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>4908.976889155628</v>
+        <v>1589.78835199026</v>
       </c>
       <c r="G12">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -787,340 +895,1276 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3425825</v>
+        <v>3510023</v>
       </c>
       <c r="D13">
-        <v>28533</v>
+        <v>3912</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F13">
-        <v>6542.721318677027</v>
+        <v>1584.476429471091</v>
       </c>
       <c r="G13">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14">
-        <v>999999</v>
+        <v>3501223</v>
       </c>
       <c r="D14">
-        <v>23096</v>
+        <v>1886</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F14">
-        <v>6004.832392402785</v>
+        <v>1570.572944083537</v>
       </c>
       <c r="G14">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3505793</v>
+        <v>3421154</v>
       </c>
       <c r="D15">
-        <v>32923</v>
+        <v>1935</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>5797.210511935989</v>
+        <v>1565.592350540858</v>
       </c>
       <c r="G15">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16">
-        <v>3185375</v>
+        <v>3420909</v>
       </c>
       <c r="D16">
-        <v>13427</v>
+        <v>7292</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F16">
-        <v>5958.306569358994</v>
+        <v>1547.664806529496</v>
       </c>
       <c r="G16">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3425822</v>
+        <v>3481432</v>
       </c>
       <c r="D17">
-        <v>9683</v>
+        <v>4012</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F17">
-        <v>5872.291871108978</v>
+        <v>1540.877835296483</v>
       </c>
       <c r="G17">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>3485975</v>
+        <v>3482119</v>
       </c>
       <c r="D18">
-        <v>16466</v>
+        <v>3352</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F18">
-        <v>5731.171153017351</v>
+        <v>1525.245874666492</v>
       </c>
       <c r="G18">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>3485977</v>
+        <v>3180508</v>
       </c>
       <c r="D19">
-        <v>1713</v>
+        <v>1770</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F19">
-        <v>5279.993391893866</v>
+        <v>1510.903961018459</v>
       </c>
       <c r="G19">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3205415</v>
+        <v>3200205</v>
       </c>
       <c r="D20">
-        <v>3974</v>
+        <v>1392</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F20">
-        <v>5482.717598394455</v>
+        <v>1506.591810593915</v>
       </c>
       <c r="G20">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21">
-        <v>3195402</v>
+        <v>3180557</v>
       </c>
       <c r="D21">
-        <v>621</v>
+        <v>1585</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F21">
-        <v>5228.317551528145</v>
+        <v>1505.830117133816</v>
       </c>
       <c r="G21">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
-        <v>999999</v>
+        <v>3220002</v>
       </c>
       <c r="D22">
-        <v>23096</v>
+        <v>3949</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>5085.72789690955</v>
+        <v>1484.346991784663</v>
       </c>
       <c r="G22">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23">
-        <v>999999</v>
+        <v>3200376</v>
       </c>
       <c r="D23">
-        <v>23096</v>
+        <v>811</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F23">
-        <v>4713.692701233094</v>
+        <v>1479.741734445353</v>
       </c>
       <c r="G23">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>3125059</v>
+        <v>3220016</v>
       </c>
       <c r="D24">
-        <v>316</v>
+        <v>5736</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F24">
-        <v>5020.383830924</v>
+        <v>1479.313655326766</v>
       </c>
       <c r="G24">
         <v>8</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>999999</v>
+        <v>3200356</v>
       </c>
       <c r="D25">
-        <v>23096</v>
+        <v>617</v>
       </c>
       <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25">
+        <v>1450.429916392685</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>3530882</v>
+      </c>
+      <c r="D26">
+        <v>626</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26">
+        <v>1404.929795872853</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="F25">
-        <v>5125.966383941448</v>
-      </c>
-      <c r="G25">
+      <c r="C27">
+        <v>3510534</v>
+      </c>
+      <c r="D27">
+        <v>353</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27">
+        <v>1399.483257124894</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>3180861</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28">
+        <v>1398.231527943131</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>3510342</v>
+      </c>
+      <c r="D29">
+        <v>621</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29">
+        <v>1395.037206218614</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>3530496</v>
+      </c>
+      <c r="D30">
+        <v>222</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>1376.951074205445</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>3181007</v>
+      </c>
+      <c r="D31">
+        <v>299</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31">
+        <v>1353.969457545051</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>3425301</v>
+      </c>
+      <c r="D32">
+        <v>17241</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32">
+        <v>1758.766441539016</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>3425499</v>
+      </c>
+      <c r="D33">
+        <v>8931</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33">
+        <v>1708.910684105083</v>
+      </c>
+      <c r="G33">
         <v>80</v>
       </c>
-      <c r="H25">
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>3505990</v>
+      </c>
+      <c r="D34">
+        <v>12369</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34">
+        <v>1668.566189664283</v>
+      </c>
+      <c r="G34">
+        <v>60</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>3185256</v>
+      </c>
+      <c r="D35">
+        <v>4773</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35">
+        <v>1635.325078986351</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>3535410</v>
+      </c>
+      <c r="D36">
+        <v>13110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36">
+        <v>1633.843290661803</v>
+      </c>
+      <c r="G36">
+        <v>45</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>3505217</v>
+      </c>
+      <c r="D37">
+        <v>2653</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37">
+        <v>1633.118496293806</v>
+      </c>
+      <c r="G37">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>3486010</v>
+      </c>
+      <c r="D38">
+        <v>16886</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38">
+        <v>1608.949963038518</v>
+      </c>
+      <c r="G38">
+        <v>36</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>3055067</v>
+      </c>
+      <c r="D39">
+        <v>5621</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39">
+        <v>1582.403257447547</v>
+      </c>
+      <c r="G39">
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>3535316</v>
+      </c>
+      <c r="D40">
+        <v>10497</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40">
+        <v>1567.453275480041</v>
+      </c>
+      <c r="G40">
+        <v>29</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>3205460</v>
+      </c>
+      <c r="D41">
+        <v>4234</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41">
+        <v>1555.978826478169</v>
+      </c>
+      <c r="G41">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>3185168</v>
+      </c>
+      <c r="D42">
+        <v>3401</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42">
+        <v>1552.549531824134</v>
+      </c>
+      <c r="G42">
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>3426201</v>
+      </c>
+      <c r="D43">
+        <v>3784</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43">
+        <v>1503.779183700283</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>3425669</v>
+      </c>
+      <c r="D44">
+        <v>1739</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44">
+        <v>1448.52375384503</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
         <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>3506008</v>
+      </c>
+      <c r="D45">
+        <v>2601</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45">
+        <v>1437.060479933354</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>3185114</v>
+      </c>
+      <c r="D46">
+        <v>948</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46">
+        <v>1434.52792805945</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>3486314</v>
+      </c>
+      <c r="D47">
+        <v>918</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47">
+        <v>1420.832095912311</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>3426200</v>
+      </c>
+      <c r="D48">
+        <v>1558</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48">
+        <v>1414.844691788398</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>1255374</v>
+      </c>
+      <c r="D49">
+        <v>223</v>
+      </c>
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49">
+        <v>1413.288084648701</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>1274580</v>
+      </c>
+      <c r="D50">
+        <v>619</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50">
+        <v>1410.016039771287</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>3427109</v>
+      </c>
+      <c r="D51">
+        <v>1661</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51">
+        <v>1407.160531790479</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>3486548</v>
+      </c>
+      <c r="D52">
+        <v>653</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52">
+        <v>1398.654235840079</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <v>3485849</v>
+      </c>
+      <c r="D53">
+        <v>533</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53">
+        <v>1394.251386755858</v>
+      </c>
+      <c r="G53">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>3486003</v>
+      </c>
+      <c r="D54">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54">
+        <v>1392.026686663094</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>3185137</v>
+      </c>
+      <c r="D55">
+        <v>1627</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55">
+        <v>1388.236082279142</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>3185579</v>
+      </c>
+      <c r="D56">
+        <v>724</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56">
+        <v>1382.195876269368</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>3205407</v>
+      </c>
+      <c r="D57">
+        <v>359</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57">
+        <v>1359.67563865998</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>3505675</v>
+      </c>
+      <c r="D58">
+        <v>428</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58">
+        <v>1341.02833897701</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>3505834</v>
+      </c>
+      <c r="D59">
+        <v>214</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59">
+        <v>1324.291384148431</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>3486901</v>
+      </c>
+      <c r="D60">
+        <v>212</v>
+      </c>
+      <c r="E60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60">
+        <v>1300</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>3205422</v>
+      </c>
+      <c r="D61">
+        <v>228</v>
+      </c>
+      <c r="E61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61">
+        <v>1278.875469479649</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
